--- a/ig/contenu_narratif_update3/CodeSystem-eclaire-type-contact-code-system.xlsx
+++ b/ig/contenu_narratif_update3/CodeSystem-eclaire-type-contact-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T12:17:54+00:00</t>
+    <t>2023-07-27T08:18:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
